--- a/Data/Colony 1 in&out data (4 hours).xlsx
+++ b/Data/Colony 1 in&out data (4 hours).xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="high density" sheetId="1" r:id="rId1"/>
+    <sheet name="low density" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="7">
   <si>
     <t>time</t>
   </si>
@@ -39,6 +40,12 @@
   </si>
   <si>
     <t>Action</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Enter</t>
   </si>
 </sst>
 </file>
@@ -365,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,4 +2034,927 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>407</v>
+      </c>
+      <c r="B2">
+        <v>10196</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>407</v>
+      </c>
+      <c r="B3">
+        <v>10205</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>407</v>
+      </c>
+      <c r="B4">
+        <v>12688</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>407</v>
+      </c>
+      <c r="B5">
+        <v>12723</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>494</v>
+      </c>
+      <c r="B6">
+        <v>11672</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>494</v>
+      </c>
+      <c r="B7">
+        <v>11676</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>560</v>
+      </c>
+      <c r="B8">
+        <v>10857</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>560</v>
+      </c>
+      <c r="B9">
+        <v>10996</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>564</v>
+      </c>
+      <c r="B10">
+        <v>5935</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>564</v>
+      </c>
+      <c r="B11">
+        <v>5996</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>571</v>
+      </c>
+      <c r="B12">
+        <v>8997</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>571</v>
+      </c>
+      <c r="B13">
+        <v>9023</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>571</v>
+      </c>
+      <c r="B14">
+        <v>11731</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>571</v>
+      </c>
+      <c r="B15">
+        <v>11754</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>594</v>
+      </c>
+      <c r="B16">
+        <v>1179</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>594</v>
+      </c>
+      <c r="B17">
+        <v>1252</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>594</v>
+      </c>
+      <c r="B18">
+        <v>1270</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>594</v>
+      </c>
+      <c r="B19">
+        <v>1693</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>594</v>
+      </c>
+      <c r="B20">
+        <v>2709</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>594</v>
+      </c>
+      <c r="B21">
+        <v>2743</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>594</v>
+      </c>
+      <c r="B22">
+        <v>2820</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>594</v>
+      </c>
+      <c r="B23">
+        <v>2928</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>594</v>
+      </c>
+      <c r="B24">
+        <v>2958</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>594</v>
+      </c>
+      <c r="B25">
+        <v>3522</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>594</v>
+      </c>
+      <c r="B26">
+        <v>4362</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>594</v>
+      </c>
+      <c r="B27">
+        <v>5180</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>594</v>
+      </c>
+      <c r="B28">
+        <v>5717</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>594</v>
+      </c>
+      <c r="B29">
+        <v>6258</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>594</v>
+      </c>
+      <c r="B30">
+        <v>6880</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>594</v>
+      </c>
+      <c r="B31">
+        <v>7727</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>594</v>
+      </c>
+      <c r="B32">
+        <v>8347</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>594</v>
+      </c>
+      <c r="B33">
+        <v>8861</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>594</v>
+      </c>
+      <c r="B34">
+        <v>11213</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>594</v>
+      </c>
+      <c r="B35">
+        <v>12374</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>594</v>
+      </c>
+      <c r="B36">
+        <v>13792</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>643</v>
+      </c>
+      <c r="B37">
+        <v>2972</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>643</v>
+      </c>
+      <c r="B38">
+        <v>4073</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>643</v>
+      </c>
+      <c r="B39">
+        <v>4883</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>643</v>
+      </c>
+      <c r="B40">
+        <v>5195</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>643</v>
+      </c>
+      <c r="B41">
+        <v>5223</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>643</v>
+      </c>
+      <c r="B42">
+        <v>5227</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>643</v>
+      </c>
+      <c r="B43">
+        <v>5338</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>643</v>
+      </c>
+      <c r="B44">
+        <v>5771</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>643</v>
+      </c>
+      <c r="B45">
+        <v>5852</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>643</v>
+      </c>
+      <c r="B46">
+        <v>7344</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>643</v>
+      </c>
+      <c r="B47">
+        <v>7988</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>643</v>
+      </c>
+      <c r="B48">
+        <v>8892</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>643</v>
+      </c>
+      <c r="B49">
+        <v>11725</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>643</v>
+      </c>
+      <c r="B50">
+        <v>12403</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>643</v>
+      </c>
+      <c r="B51">
+        <v>12449</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>643</v>
+      </c>
+      <c r="B52">
+        <v>12646</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>643</v>
+      </c>
+      <c r="B53">
+        <v>13823</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>666</v>
+      </c>
+      <c r="B54">
+        <v>2713</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>666</v>
+      </c>
+      <c r="B55">
+        <v>3952</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>666</v>
+      </c>
+      <c r="B56">
+        <v>4353</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>666</v>
+      </c>
+      <c r="B57">
+        <v>4901</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>666</v>
+      </c>
+      <c r="B58">
+        <v>5200</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>666</v>
+      </c>
+      <c r="B59">
+        <v>5968</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>666</v>
+      </c>
+      <c r="B60">
+        <v>6546</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>666</v>
+      </c>
+      <c r="B61">
+        <v>7418</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>666</v>
+      </c>
+      <c r="B62">
+        <v>7951</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>666</v>
+      </c>
+      <c r="B63">
+        <v>8944</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>666</v>
+      </c>
+      <c r="B64">
+        <v>10200</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>666</v>
+      </c>
+      <c r="B65">
+        <v>10272</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>666</v>
+      </c>
+      <c r="B66">
+        <v>10286</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>666</v>
+      </c>
+      <c r="B67">
+        <v>11119</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>666</v>
+      </c>
+      <c r="B68">
+        <v>11879</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>666</v>
+      </c>
+      <c r="B69">
+        <v>12597</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>666</v>
+      </c>
+      <c r="B70">
+        <v>12774</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>666</v>
+      </c>
+      <c r="B71">
+        <v>12799</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>666</v>
+      </c>
+      <c r="B72">
+        <v>13022</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>666</v>
+      </c>
+      <c r="B73">
+        <v>14041</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>666</v>
+      </c>
+      <c r="B74">
+        <v>14267</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>688</v>
+      </c>
+      <c r="B75">
+        <v>11362</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>688</v>
+      </c>
+      <c r="B76">
+        <v>11391</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>688</v>
+      </c>
+      <c r="B77">
+        <v>11542</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>688</v>
+      </c>
+      <c r="B78">
+        <v>11586</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>703</v>
+      </c>
+      <c r="B79">
+        <v>10934</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>703</v>
+      </c>
+      <c r="B80">
+        <v>10943</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>729</v>
+      </c>
+      <c r="B81">
+        <v>11241</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>729</v>
+      </c>
+      <c r="B82">
+        <v>11258</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C82">
+    <sortCondition ref="A2:A82"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>